--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190313.412134152</v>
+        <v>2293745.770289788</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5976712.152157659</v>
+        <v>6315898.270103894</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,16 +667,16 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>70.44292989461901</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>179.8643833978952</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.77535873793011</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -823,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -874,10 +876,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>113.4697162081811</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>23.17528035532213</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.8810157842837</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1111,10 +1113,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>10.97980345519859</v>
       </c>
       <c r="W7" t="n">
-        <v>87.8097333264875</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1145,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>242.3163822607613</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>81.48697791125825</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1300,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>41.61796818549283</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>217.799198451419</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453622</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>233.8029805999001</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,16 +1530,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>98.26334559068054</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1613,19 +1615,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>298.5325223474863</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396355</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>98.15366458399255</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>257.463877437269</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>96.44420510686395</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>33.34596900873579</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2245,10 +2247,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -2257,7 +2259,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>75.33365464461365</v>
       </c>
       <c r="T22" t="n">
-        <v>218.7757544134943</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2479,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.9774219453449</v>
+        <v>205.8700735268513</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864467</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
@@ -2713,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>228.3228692548426</v>
       </c>
       <c r="X28" t="n">
-        <v>102.8211712697545</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>142.3668648089854</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>154.9237069484776</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3193,13 +3195,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -3241,19 +3243,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>116.0473343997611</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>131.1113946333112</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924943</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3424,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>40.79871210679603</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>110.6104701467503</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100367</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3752,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>77.09389149389624</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3913,7 +3915,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>155.1469410361726</v>
+        <v>260.444681387164</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>108.7349818026253</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4144,13 +4146,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>16.66918694452604</v>
+        <v>40.16403297592249</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1312.407503826393</v>
+        <v>967.1113293026272</v>
       </c>
       <c r="C2" t="n">
-        <v>1289.547177880097</v>
+        <v>944.2510033563314</v>
       </c>
       <c r="D2" t="n">
-        <v>1270.294961105501</v>
+        <v>924.9987865817357</v>
       </c>
       <c r="E2" t="n">
-        <v>1199.140486464472</v>
+        <v>499.0218467295933</v>
       </c>
       <c r="F2" t="n">
-        <v>774.0163046538721</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884622</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>517.6410595347456</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>996.5799837771738</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>1475.518908019602</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5154512777223</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="O2" t="n">
-        <v>856.3013579804531</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T2" t="n">
-        <v>1741.232328914477</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="U2" t="n">
-        <v>1741.232328914477</v>
+        <v>1753.425569264462</v>
       </c>
       <c r="V2" t="n">
-        <v>1741.232328914477</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="W2" t="n">
-        <v>1741.232328914477</v>
+        <v>1395.936154390712</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.552734122628</v>
+        <v>984.2161555584588</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.255868117923</v>
+        <v>982.9192895537532</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>693.5426250668169</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>576.0367215843216</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>472.1967630996066</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>367.4948293725438</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>273.848999055448</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>179.795227273052</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>126.4191340353616</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273854</v>
+        <v>133.8657769972735</v>
       </c>
       <c r="J3" t="n">
-        <v>44.35863542273854</v>
+        <v>405.5632662768645</v>
       </c>
       <c r="K3" t="n">
-        <v>501.1445421254694</v>
+        <v>884.5021905192928</v>
       </c>
       <c r="L3" t="n">
-        <v>501.1445421254694</v>
+        <v>884.5021905192928</v>
       </c>
       <c r="M3" t="n">
-        <v>501.1445421254694</v>
+        <v>910.0030534259608</v>
       </c>
       <c r="N3" t="n">
-        <v>957.9304488282003</v>
+        <v>910.0030534259608</v>
       </c>
       <c r="O3" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.941977668389</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.087454531168</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1853.782517177126</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1711.902581474804</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1527.134385394441</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1322.161246533707</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1125.639869366924</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>962.1625231335872</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>822.4696344868796</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>787.6279394321493</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="C4" t="n">
-        <v>615.6553763110653</v>
+        <v>850.1421264357463</v>
       </c>
       <c r="D4" t="n">
-        <v>452.338603437836</v>
+        <v>686.825353562517</v>
       </c>
       <c r="E4" t="n">
-        <v>452.338603437836</v>
+        <v>520.6171477153705</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>348.7553734899309</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>182.498403784163</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>96.19346351647545</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>165.7127968734999</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>520.4021181679207</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>911.5879131381714</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1289.079424014207</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1644.50755269397</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.940779286676</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="V4" t="n">
-        <v>870.229311894705</v>
+        <v>1296.967093384317</v>
       </c>
       <c r="W4" t="n">
-        <v>870.229311894705</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="X4" t="n">
-        <v>870.229311894705</v>
+        <v>1022.11468955683</v>
       </c>
       <c r="Y4" t="n">
-        <v>870.229311894705</v>
+        <v>1022.11468955683</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>561.2807824307325</v>
+        <v>854.9492380147274</v>
       </c>
       <c r="C5" t="n">
-        <v>538.4204564844367</v>
+        <v>832.0889120684316</v>
       </c>
       <c r="D5" t="n">
-        <v>519.168239709841</v>
+        <v>812.8366952938359</v>
       </c>
       <c r="E5" t="n">
-        <v>497.2317038981026</v>
+        <v>790.9001594820975</v>
       </c>
       <c r="F5" t="n">
-        <v>72.10752208750284</v>
+        <v>365.7759776714977</v>
       </c>
       <c r="G5" t="n">
-        <v>71.80886371735554</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>475.2419029331441</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>475.2419029331441</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>475.2419029331441</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>932.027809635875</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O5" t="n">
-        <v>1388.813716338606</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1845.599623041337</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.110208167586</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1091.718858467933</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>679.9988596356804</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.0887426818585</v>
+        <v>870.7571982658534</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="K6" t="n">
-        <v>475.2419029331439</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="L6" t="n">
-        <v>932.0278096358747</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="M6" t="n">
-        <v>1388.813716338606</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="N6" t="n">
-        <v>1845.599623041337</v>
+        <v>974.3357998282165</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1525.001334812655</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q6" t="n">
-        <v>1845.599623041337</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.9377937795242</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C7" t="n">
-        <v>346.9652306584402</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>346.9652306584402</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>346.9652306584402</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1845.599623041337</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1602.260275267237</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1322.075826767541</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V7" t="n">
-        <v>1040.36435937557</v>
+        <v>1473.123084834082</v>
       </c>
       <c r="W7" t="n">
-        <v>951.6676590457847</v>
+        <v>1198.270681006595</v>
       </c>
       <c r="X7" t="n">
-        <v>709.1037624915898</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.1037624915898</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>930.4243152146078</v>
+        <v>1217.671441545175</v>
       </c>
       <c r="C8" t="n">
-        <v>503.5235852279079</v>
+        <v>1194.811115598879</v>
       </c>
       <c r="D8" t="n">
-        <v>80.23096441290814</v>
+        <v>771.5184947838793</v>
       </c>
       <c r="E8" t="n">
-        <v>58.29442860116974</v>
+        <v>749.5819589721409</v>
       </c>
       <c r="F8" t="n">
-        <v>37.21065083097405</v>
+        <v>728.4981812019452</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>324.1591187913938</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>475.2419029331441</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>475.2419029331441</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>475.2419029331441</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>932.027809635875</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
-        <v>1388.813716338606</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="W8" t="n">
-        <v>1763.289544343096</v>
+        <v>1646.496266633259</v>
       </c>
       <c r="X8" t="n">
-        <v>1351.569545510843</v>
+        <v>1638.81667184141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1350.272679506138</v>
+        <v>1233.479401796301</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>493.6978991635576</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>950.4838058662885</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>950.4838058662885</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>950.4838058662885</v>
+        <v>1153.275937980036</v>
       </c>
       <c r="O9" t="n">
-        <v>950.4838058662885</v>
+        <v>1703.941472964474</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253902</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956633</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.0505717913936</v>
+        <v>737.4839554633641</v>
       </c>
       <c r="C10" t="n">
-        <v>610.0505717913936</v>
+        <v>565.51139234228</v>
       </c>
       <c r="D10" t="n">
-        <v>446.7337989181643</v>
+        <v>402.1946194690507</v>
       </c>
       <c r="E10" t="n">
-        <v>446.7337989181643</v>
+        <v>402.1946194690507</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>230.3328452436112</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>230.3328452436112</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>86.53657675176555</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>884.9029756188806</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>610.0505717913936</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>610.0505717913936</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="Y10" t="n">
-        <v>610.0505717913936</v>
+        <v>927.6499241754298</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.865608880979</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>1138.96487889428</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.96487889428</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>712.987939042137</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>712.987939042137</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>308.6488766315856</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>72.48424976299957</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2047.588607372514</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2944.581198189633</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3050.570673763892</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.570673763892</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.570673763892</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268075</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194611</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791023</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917273</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.051243217619</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2391.051243217619</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1985.713973172509</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299957</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299957</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L12" t="n">
-        <v>72.48424976299957</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="M12" t="n">
-        <v>72.48424976299957</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="N12" t="n">
-        <v>275.4928852935398</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O12" t="n">
-        <v>1164.974163305011</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>343.6019286254902</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C13" t="n">
-        <v>244.3460239884391</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D13" t="n">
-        <v>244.3460239884391</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E13" t="n">
-        <v>244.3460239884391</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2082.762229695263</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1839.422881921163</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1559.238433421467</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1277.526966029496</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W13" t="n">
-        <v>1002.674562202009</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X13" t="n">
-        <v>760.1106656478138</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y13" t="n">
-        <v>533.7678973375558</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2387.306854981086</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.406124994386</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1537.113504179386</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1111.136564327243</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>809.5885619560451</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>405.2494995454936</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>107.3811210195284</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299957</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>72.48424976299957</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L14" t="n">
-        <v>72.48424976299957</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M14" t="n">
-        <v>969.4768405801191</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>1866.469431397239</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>2711.614081548051</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>3419.893360705978</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149978</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3624.212488149978</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3624.212488149978</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3624.212488149978</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3624.212488149978</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3624.212488149978</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>3212.492489317725</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2807.155219272616</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>219.914114783086</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>72.48424976299957</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>72.48424976299957</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>72.48424976299957</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2830578459057</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M15" t="n">
-        <v>1806.275648663025</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N15" t="n">
-        <v>1806.275648663025</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="O15" t="n">
-        <v>1881.171880343509</v>
+        <v>1470.761792120201</v>
       </c>
       <c r="P15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>343.6019286254902</v>
+        <v>1041.68756743822</v>
       </c>
       <c r="C16" t="n">
-        <v>171.6293655044062</v>
+        <v>869.7150043171358</v>
       </c>
       <c r="D16" t="n">
-        <v>171.6293655044062</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E16" t="n">
-        <v>171.6293655044062</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F16" t="n">
-        <v>72.48424976299957</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>72.48424976299957</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299957</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R16" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S16" t="n">
-        <v>2082.762229695263</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="T16" t="n">
-        <v>1839.422881921163</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="U16" t="n">
-        <v>1559.238433421467</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="V16" t="n">
-        <v>1277.526966029496</v>
+        <v>1975.612604842225</v>
       </c>
       <c r="W16" t="n">
-        <v>1002.674562202009</v>
+        <v>1700.760201014738</v>
       </c>
       <c r="X16" t="n">
-        <v>760.1106656478138</v>
+        <v>1458.196304460543</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.7678973375558</v>
+        <v>1231.853536150285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5516,22 +5518,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5546,19 +5548,19 @@
         <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805613</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931863</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.60713123221</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>390.8583291475138</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>543.5554397491844</v>
+        <v>812.2850232837875</v>
       </c>
       <c r="C19" t="n">
-        <v>371.5828766281004</v>
+        <v>640.3124601627035</v>
       </c>
       <c r="D19" t="n">
-        <v>371.5828766281004</v>
+        <v>640.3124601627035</v>
       </c>
       <c r="E19" t="n">
-        <v>371.5828766281004</v>
+        <v>474.104254315557</v>
       </c>
       <c r="F19" t="n">
-        <v>199.7211024026608</v>
+        <v>302.2424800901174</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>135.9855103843495</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1759.191944545161</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1477.48047715319</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.628073325703</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>960.064176771508</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.72140846125</v>
+        <v>1002.450991995853</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>786.1869982294937</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5777,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3896.932966279258</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>4733.731774362164</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="M21" t="n">
-        <v>5115.135670291427</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2206.621140167832</v>
       </c>
       <c r="T22" t="n">
-        <v>1844.556469506584</v>
+        <v>1963.281792393732</v>
       </c>
       <c r="U22" t="n">
-        <v>1844.556469506584</v>
+        <v>1963.281792393732</v>
       </c>
       <c r="V22" t="n">
-        <v>1844.556469506584</v>
+        <v>1681.570325001761</v>
       </c>
       <c r="W22" t="n">
-        <v>1844.556469506584</v>
+        <v>1406.717921174274</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6072,10 +6074,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>855.0038060102931</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3444.765186071969</v>
+        <v>869.8257932127802</v>
       </c>
       <c r="C25" t="n">
-        <v>3272.792622950885</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D25" t="n">
-        <v>3272.792622950885</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E25" t="n">
-        <v>3106.584417103738</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878299</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878299</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>4871.796322517327</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>4591.611874017632</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>4309.90040662566</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="W25" t="n">
-        <v>4035.048002798173</v>
+        <v>1510.505227698082</v>
       </c>
       <c r="X25" t="n">
-        <v>3792.484106243979</v>
+        <v>1267.941331143888</v>
       </c>
       <c r="Y25" t="n">
-        <v>3634.931154784034</v>
+        <v>1059.991761924846</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>533.9931985757493</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O26" t="n">
-        <v>3950.770911629316</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6260,16 +6262,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>512.1245198631661</v>
+        <v>3774.338928650966</v>
       </c>
       <c r="C28" t="n">
-        <v>512.1245198631661</v>
+        <v>3602.366365529882</v>
       </c>
       <c r="D28" t="n">
-        <v>512.1245198631661</v>
+        <v>3439.049592656653</v>
       </c>
       <c r="E28" t="n">
-        <v>512.1245198631661</v>
+        <v>3272.841386809506</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>3100.979612584067</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>4190.847665673289</v>
       </c>
       <c r="X28" t="n">
-        <v>928.6332568854898</v>
+        <v>4190.847665673289</v>
       </c>
       <c r="Y28" t="n">
-        <v>702.2904885752318</v>
+        <v>3964.504897363031</v>
       </c>
     </row>
     <row r="29">
@@ -6461,19 +6463,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>188.235025135897</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>903.7433331113961</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1833.368380730673</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2837.654482149731</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3813.905540636432</v>
       </c>
       <c r="O29" t="n">
         <v>4659.050190787244</v>
@@ -6549,10 +6551,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3817.874342004482</v>
+        <v>3854.586992529306</v>
       </c>
       <c r="C31" t="n">
-        <v>3674.069428056012</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="D31" t="n">
-        <v>3510.752655182783</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E31" t="n">
-        <v>3344.544449335636</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F31" t="n">
         <v>3344.544449335636</v>
@@ -6643,28 +6645,28 @@
         <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497735</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723635</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.43821322394</v>
+        <v>4788.512029933312</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831969</v>
+        <v>4788.512029933312</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004482</v>
+        <v>4513.659626105825</v>
       </c>
       <c r="X31" t="n">
-        <v>3817.874342004482</v>
+        <v>4271.09572955163</v>
       </c>
       <c r="Y31" t="n">
-        <v>3817.874342004482</v>
+        <v>4044.752961241372</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1529.586448057074</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>1529.586448057074</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1013.622061704626</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="C34" t="n">
-        <v>841.6494985835419</v>
+        <v>681.0460972560671</v>
       </c>
       <c r="D34" t="n">
-        <v>678.3327257103126</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="E34" t="n">
-        <v>512.1245198631661</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G34" t="n">
         <v>345.8675501573982</v>
@@ -6889,19 +6891,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1704.983202554437</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.983202554437</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.130798726949</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1430.130798726949</v>
+        <v>853.0186603771511</v>
       </c>
       <c r="Y34" t="n">
-        <v>1203.788030416692</v>
+        <v>853.0186603771511</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P35" t="n">
-        <v>4565.888850239604</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6971,13 +6973,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7014,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>692.7876399741681</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>1529.586448057074</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M36" t="n">
-        <v>1529.586448057074</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N36" t="n">
-        <v>1529.586448057074</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1529.586448057074</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.604840768015</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>481.632277646931</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="D37" t="n">
-        <v>481.632277646931</v>
+        <v>380.2386668759551</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>214.0304610288087</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
         <v>102.3027134058285</v>
@@ -7120,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>1869.241345563992</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.529878172021</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1312.677474344533</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.113577790339</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.7708094800807</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7172,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>4951.828802806542</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1808.67559348397</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>1381.77486349727</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>958.4822426822706</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>532.5053028301281</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>107.3811210195283</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.0877085798951</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L41" t="n">
-        <v>2047.588607372514</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M41" t="n">
-        <v>2944.581198189633</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N41" t="n">
-        <v>3506.656153268075</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O41" t="n">
-        <v>3506.656153268075</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P41" t="n">
-        <v>3506.656153268075</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268075</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>3519.845194023118</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
-        <v>3519.845194023118</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3441.972576352516</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3045.581226652862</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2633.86122782061</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2228.5239577755</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>275.4928852935398</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M42" t="n">
-        <v>275.4928852935398</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>275.4928852935398</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1164.974163305011</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>748.7837626624374</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C43" t="n">
-        <v>576.8111995413534</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D43" t="n">
-        <v>576.8111995413534</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E43" t="n">
-        <v>410.602993694207</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F43" t="n">
-        <v>238.7412194687674</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G43" t="n">
-        <v>72.48424976299955</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2082.762229695263</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T43" t="n">
-        <v>1839.422881921163</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U43" t="n">
-        <v>1682.708800066443</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="V43" t="n">
-        <v>1682.708800066443</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.856396238956</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X43" t="n">
-        <v>1165.292499684761</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y43" t="n">
-        <v>938.949731374503</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.0877085798951</v>
+        <v>456.2068044646703</v>
       </c>
       <c r="K44" t="n">
-        <v>1150.596016555394</v>
+        <v>1171.715112440169</v>
       </c>
       <c r="L44" t="n">
-        <v>1150.596016555394</v>
+        <v>2101.340160059446</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.298803788844</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N44" t="n">
-        <v>2342.291394605964</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605964</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763892</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268075</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149978</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664164</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>3040.564713664164</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.564713664164</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3040.564713664164</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>79.93089272491139</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>351.6283820045024</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>942.113308572842</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>1778.912116655748</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M45" t="n">
-        <v>1799.152570258806</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N45" t="n">
-        <v>1799.152570258806</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.152570258806</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="P45" t="n">
-        <v>1799.152570258806</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1799.152570258806</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.2387613102271</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C46" t="n">
-        <v>568.2661981891431</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D46" t="n">
-        <v>404.9494253159139</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E46" t="n">
-        <v>238.7412194687674</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F46" t="n">
-        <v>238.7412194687674</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G46" t="n">
-        <v>72.48424976299955</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H46" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299955</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871576</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929948</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874156</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2236.059714605899</v>
+        <v>2024.972349746555</v>
       </c>
       <c r="U46" t="n">
-        <v>1955.875266106204</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="V46" t="n">
-        <v>1674.163798714233</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="W46" t="n">
-        <v>1399.311394886746</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X46" t="n">
-        <v>1156.747498332551</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y46" t="n">
-        <v>930.4047300222928</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487773</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>522.0887335865908</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>521.2079540533997</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>501.5097810124961</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>457.4303624918456</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>506.1759249873012</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>48.8552278928008</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>375.55972550576</v>
+        <v>506.9485808761901</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8137,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>91.18620329819123</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>84.86874406016992</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>190.7148107956829</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>177.0689530252724</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8380,13 +8382,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961657</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>478.5220861203824</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>381.6805385660549</v>
+        <v>89.67495492258647</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,10 +8610,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8629,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,19 +8695,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>944.3651644701174</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3396991720813</v>
+        <v>763.430074865614</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8766,10 +8768,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8778,13 +8780,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>226.4022560221681</v>
+        <v>977.4089016807933</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>583.8722719747271</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369263</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719406</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8945,10 +8947,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>242.5076316187391</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>929.1499025498225</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>98.82464899543872</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>466.4461461201186</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9164,10 +9166,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,7 +9248,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>782.8192206581333</v>
+        <v>306.4635440675361</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>726.5568076874005</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9410,16 +9412,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>370.4410136063929</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9480,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>482.1725369225717</v>
       </c>
       <c r="M21" t="n">
-        <v>408.3532410469371</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,13 +9722,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>471.8155959159414</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9887,16 +9889,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>262.439123722643</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>467.7720854276179</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>116.2202743644436</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,7 +10126,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>611.6066190166155</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10361,13 +10363,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10428,16 +10430,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10446,7 +10448,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>408.0034988235887</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q35" t="n">
-        <v>472.1756697257304</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10664,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>867.7664080100944</v>
@@ -10674,19 +10676,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>645.7592131966823</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>407.0273017394389</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078898</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>217.3512730059682</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>749.7130252568753</v>
       </c>
       <c r="L41" t="n">
-        <v>944.3651644701173</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369262</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>605.0321027116599</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>227.574314522856</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>386.8988393430025</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>335.1108459635229</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>943.3327448719405</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11318,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>43.54168314167958</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>534.642907502631</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>61.0867141408055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396355</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>71.9894918991926</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>122.3404176450075</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.98949189919263</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>21.43047528078239</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68.15019490184623</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>109.0123367981914</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>93.10004236144285</v>
       </c>
       <c r="T22" t="n">
-        <v>22.13019988286467</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.1019186818105</v>
+        <v>18.20926710030412</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>43.78101053436947</v>
       </c>
       <c r="X28" t="n">
-        <v>137.3170863188984</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.88597268088773</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>122.4588970662212</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>161.3352696149377</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>109.0268629553417</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>123.7474116818789</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>59.53268633643485</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>117.2205539080147</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>276.8206292311168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,13 +25836,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>122.2356629785262</v>
+        <v>16.93792262753476</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.5489155420332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26032,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>224.236767351833</v>
+        <v>200.7419213204365</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533327.115418365</v>
+        <v>534474.5246443473</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533327.115418365</v>
+        <v>538189.5839930947</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533327.115418365</v>
+        <v>538189.5839930947</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436751.807503083</v>
+        <v>549306.4096567505</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436751.8075030831</v>
+        <v>549306.4096567505</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>436751.8075030831</v>
+        <v>549306.4096567505</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436751.8075030832</v>
+        <v>549306.4096567505</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>524198.4012100472</v>
+        <v>524198.4012100471</v>
       </c>
       <c r="C2" t="n">
-        <v>524198.4012100471</v>
+        <v>524198.4012100467</v>
       </c>
       <c r="D2" t="n">
-        <v>524198.4012100468</v>
+        <v>524198.4012100467</v>
       </c>
       <c r="E2" t="n">
-        <v>402200.5562107941</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="F2" t="n">
-        <v>402200.5562107941</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="G2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="H2" t="n">
         <v>505827.3628237025</v>
@@ -26335,25 +26337,25 @@
         <v>505827.3628237027</v>
       </c>
       <c r="J2" t="n">
+        <v>505827.3628237026</v>
+      </c>
+      <c r="K2" t="n">
         <v>505827.3628237025</v>
       </c>
-      <c r="K2" t="n">
-        <v>505827.3628237027</v>
-      </c>
       <c r="L2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="M2" t="n">
         <v>505827.3628237025</v>
       </c>
       <c r="N2" t="n">
-        <v>505827.3628237028</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="O2" t="n">
-        <v>402200.5562107941</v>
+        <v>505827.3628237025</v>
       </c>
       <c r="P2" t="n">
-        <v>402200.5562107938</v>
+        <v>505827.3628237025</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361226</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.668009602</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701983</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091335</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199461.1094204222</v>
+        <v>195487.3209125818</v>
       </c>
       <c r="C4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.065515899</v>
       </c>
       <c r="D4" t="n">
-        <v>199461.1094204221</v>
+        <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>57519.56881304548</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="F4" t="n">
-        <v>57519.5688130455</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986368</v>
       </c>
       <c r="H4" t="n">
         <v>72380.62724986367</v>
       </c>
       <c r="I4" t="n">
+        <v>72380.62724986371</v>
+      </c>
+      <c r="J4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="J4" t="n">
-        <v>72380.62724986367</v>
-      </c>
       <c r="K4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="L4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="M4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="N4" t="n">
+        <v>72380.62724986365</v>
+      </c>
+      <c r="O4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="O4" t="n">
-        <v>57519.56881304552</v>
-      </c>
       <c r="P4" t="n">
-        <v>57519.56881304552</v>
+        <v>72380.62724986371</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987966</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108430.8569012762</v>
+        <v>103545.1614057129</v>
       </c>
       <c r="C6" t="n">
-        <v>263056.5775193967</v>
+        <v>250724.2509831073</v>
       </c>
       <c r="D6" t="n">
-        <v>263056.5775193964</v>
+        <v>274131.0846567195</v>
       </c>
       <c r="E6" t="n">
-        <v>156829.289568267</v>
+        <v>139957.3168287688</v>
       </c>
       <c r="F6" t="n">
-        <v>289592.9575778689</v>
+        <v>355696.6733854092</v>
       </c>
       <c r="G6" t="n">
-        <v>253536.7532910995</v>
+        <v>355696.6733854093</v>
       </c>
       <c r="H6" t="n">
+        <v>355696.6733854092</v>
+      </c>
+      <c r="I6" t="n">
+        <v>355696.6733854093</v>
+      </c>
+      <c r="J6" t="n">
+        <v>229119.4048051204</v>
+      </c>
+      <c r="K6" t="n">
+        <v>337050.0730283893</v>
+      </c>
+      <c r="L6" t="n">
         <v>355696.6733854091</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>175632.8019302415</v>
+      </c>
+      <c r="N6" t="n">
         <v>355696.6733854092</v>
       </c>
-      <c r="J6" t="n">
-        <v>234974.1564426523</v>
-      </c>
-      <c r="K6" t="n">
-        <v>355696.6733854092</v>
-      </c>
-      <c r="L6" t="n">
-        <v>355696.6733854092</v>
-      </c>
-      <c r="M6" t="n">
-        <v>244887.3132762756</v>
-      </c>
-      <c r="N6" t="n">
-        <v>355696.6733854094</v>
-      </c>
       <c r="O6" t="n">
-        <v>289592.9575778689</v>
+        <v>355696.6733854091</v>
       </c>
       <c r="P6" t="n">
-        <v>289592.9575778687</v>
+        <v>355696.6733854091</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374945</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374944</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374944</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162626</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771603</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353622</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,16 +27387,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>351.274240559002</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>75.90697691165661</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.4889502870149</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>165.4246365098703</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -27628,61 +27630,61 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>377.1203914311237</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34.5479025439635</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>392.4274362026566</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="H5" t="n">
-        <v>294.8896947407055</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>103.323621185591</v>
-      </c>
-      <c r="T5" t="n">
-        <v>218.7163152458132</v>
-      </c>
-      <c r="U5" t="n">
-        <v>255.7713603095518</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>299.4028815603749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,10 +27833,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>267.9145492628528</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2941464627246</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>52.57331247994426</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>310.9404582913983</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>57.15291439163395</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>61.09515426663233</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.82703532317577e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.157518219205768e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29287,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>464.2301581780501</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>25.75844738047282</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>352.3878357835378</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34857,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>70.22154884547923</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>155.2981118204437</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35100,13 +35102,13 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>359.0183117977413</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>359.9096973612262</v>
+        <v>67.9041137177578</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
@@ -35349,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35413,19 +35415,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>906.0531220374945</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>107.0600763376353</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>205.0592278086264</v>
+        <v>956.0658734672517</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374945</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374945</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35665,10 +35667,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>206.382957014141</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>906.0531220374945</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>75.6527592732165</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366201</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>760.3041339439037</v>
+        <v>283.9484573533065</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>690.7922068925911</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36130,16 +36132,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>333.1613907719469</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>459.6574502083422</v>
       </c>
       <c r="M21" t="n">
-        <v>385.2564605346091</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>436.0509951211321</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36607,16 +36609,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>225.0481643666189</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>444.6753049152899</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>86.80031487885702</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,7 +36846,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>574.2156596605913</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37081,13 +37083,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q35" t="n">
-        <v>436.0509951211323</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>845.2513212958648</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>624.4161849831406</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>385.2564605346102</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752669</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>713.948424462066</v>
       </c>
       <c r="L41" t="n">
-        <v>906.0531220374944</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374944</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>567.7524798772139</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.0592278086265</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>357.478879857416</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>297.6795830640911</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>906.0531220374944</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38038,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>20.4449026293516</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>512.8720662978023</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2293745.770289788</v>
+        <v>2293049.109084697</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>236.4192825513697</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>179.8643833978952</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -831,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.4697162081811</v>
+        <v>45.09988471007153</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>125.1601604573898</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>23.17528035532213</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -958,10 +958,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>8.20963560583863</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>10.97980345519859</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1122,7 +1122,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>255.4591203896008</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
@@ -1150,10 +1150,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>242.3163822607613</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>41.61796818549283</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1390,7 +1390,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.15466974967032</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>125.820827824297</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>174.4652188716418</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>257.463877437269</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>33.34596900873579</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2244,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.33365464461365</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.8700735268513</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,16 +2718,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,13 +2772,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>228.3228692548426</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>154.9237069484776</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>131.1113946333112</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924943</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -3426,16 +3426,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>110.6104701467503</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>49.87597792716544</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -3903,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>260.444681387164</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -4137,22 +4137,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>40.16403297592249</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>967.1113293026272</v>
+        <v>563.0709252622232</v>
       </c>
       <c r="C2" t="n">
-        <v>944.2510033563314</v>
+        <v>540.2105993159274</v>
       </c>
       <c r="D2" t="n">
-        <v>924.9987865817357</v>
+        <v>520.9583825413317</v>
       </c>
       <c r="E2" t="n">
-        <v>499.0218467295933</v>
+        <v>94.98144268918928</v>
       </c>
       <c r="F2" t="n">
-        <v>477.9380689593976</v>
+        <v>73.89766491899358</v>
       </c>
       <c r="G2" t="n">
-        <v>73.59900654884622</v>
+        <v>73.59900654884628</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884622</v>
+        <v>73.59900654884628</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231743</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347456</v>
+        <v>521.1434366268336</v>
       </c>
       <c r="L2" t="n">
-        <v>996.5799837771738</v>
+        <v>521.1434366268336</v>
       </c>
       <c r="M2" t="n">
-        <v>1475.518908019602</v>
+        <v>521.1434366268336</v>
       </c>
       <c r="N2" t="n">
-        <v>1935.106764615871</v>
+        <v>521.1434366268336</v>
       </c>
       <c r="O2" t="n">
-        <v>1935.106764615871</v>
+        <v>1000.082360869262</v>
       </c>
       <c r="P2" t="n">
-        <v>1935.106764615871</v>
+        <v>1479.021285111691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="T2" t="n">
-        <v>1935.106764615871</v>
+        <v>1830.739470489015</v>
       </c>
       <c r="U2" t="n">
-        <v>1753.425569264462</v>
+        <v>1572.384561085427</v>
       </c>
       <c r="V2" t="n">
-        <v>1395.936154390712</v>
+        <v>1214.895146211676</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.936154390712</v>
+        <v>1214.895146211676</v>
       </c>
       <c r="X2" t="n">
-        <v>984.2161555584588</v>
+        <v>1207.215551419828</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.9192895537532</v>
+        <v>801.8782813747179</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>693.5426250668169</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0367215843216</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>472.1967630996066</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>367.4948293725438</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
-        <v>273.848999055448</v>
+        <v>186.1320003124039</v>
       </c>
       <c r="G3" t="n">
-        <v>179.795227273052</v>
+        <v>92.07822853000789</v>
       </c>
       <c r="H3" t="n">
-        <v>126.4191340353616</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="I3" t="n">
-        <v>133.8657769972735</v>
+        <v>46.14877825422933</v>
       </c>
       <c r="J3" t="n">
-        <v>405.5632662768645</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>884.5021905192928</v>
+        <v>796.7851917762493</v>
       </c>
       <c r="L3" t="n">
-        <v>884.5021905192928</v>
+        <v>796.7851917762493</v>
       </c>
       <c r="M3" t="n">
-        <v>910.0030534259608</v>
+        <v>796.7851917762493</v>
       </c>
       <c r="N3" t="n">
-        <v>910.0030534259608</v>
+        <v>796.7851917762493</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.941977668389</v>
+        <v>822.2860546829158</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.941977668389</v>
+        <v>1301.224978925345</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.087454531168</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1935.106764615871</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1853.782517177126</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1711.902581474804</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1527.134385394441</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1322.161246533707</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.639869366924</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>962.1625231335872</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>822.4696344868796</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1022.11468955683</v>
+        <v>955.6262881107865</v>
       </c>
       <c r="C4" t="n">
-        <v>850.1421264357463</v>
+        <v>783.6537249897025</v>
       </c>
       <c r="D4" t="n">
-        <v>686.825353562517</v>
+        <v>620.3369521164732</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153705</v>
+        <v>454.1287462693267</v>
       </c>
       <c r="F4" t="n">
-        <v>348.7553734899309</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="G4" t="n">
-        <v>182.498403784163</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231743</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231749</v>
       </c>
       <c r="J4" t="n">
-        <v>96.19346351647545</v>
+        <v>96.1934635164755</v>
       </c>
       <c r="K4" t="n">
-        <v>165.7127968734999</v>
+        <v>322.7210647223127</v>
       </c>
       <c r="L4" t="n">
-        <v>520.4021181679207</v>
+        <v>677.4103860167335</v>
       </c>
       <c r="M4" t="n">
-        <v>911.5879131381714</v>
+        <v>1068.596180986984</v>
       </c>
       <c r="N4" t="n">
-        <v>1289.079424014207</v>
+        <v>1446.08769186302</v>
       </c>
       <c r="O4" t="n">
-        <v>1644.50755269397</v>
+        <v>1801.515820542783</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615871</v>
+        <v>1808.106634375112</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841772</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342076</v>
+        <v>1935.106764615874</v>
       </c>
       <c r="V4" t="n">
-        <v>1296.967093384317</v>
+        <v>1889.551325514792</v>
       </c>
       <c r="W4" t="n">
-        <v>1022.11468955683</v>
+        <v>1614.698921687305</v>
       </c>
       <c r="X4" t="n">
-        <v>1022.11468955683</v>
+        <v>1372.13502513311</v>
       </c>
       <c r="Y4" t="n">
-        <v>1022.11468955683</v>
+        <v>1145.792256822852</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>854.9492380147274</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C5" t="n">
-        <v>832.0889120684316</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D5" t="n">
-        <v>812.8366952938359</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E5" t="n">
-        <v>790.9001594820975</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F5" t="n">
-        <v>365.7759776714977</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>342.3666035752127</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4579,13 +4579,13 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2059.098288819458</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4597,22 +4597,22 @@
         <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>696.5882855262728</v>
       </c>
       <c r="Y5" t="n">
-        <v>870.7571982658534</v>
+        <v>291.2510154811631</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>423.6702648437783</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>423.6702648437783</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>974.3357998282165</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>974.3357998282165</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>974.3357998282165</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1525.001334812655</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.746465514894</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7067844524004</v>
+        <v>720.7977379486855</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4731,13 +4731,13 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
         <v>1807.311910299714</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2216.618691244358</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2216.618691244358</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2216.618691244358</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394889</v>
+        <v>1936.434242744662</v>
       </c>
       <c r="V7" t="n">
-        <v>1473.123084834082</v>
+        <v>1654.722775352691</v>
       </c>
       <c r="W7" t="n">
-        <v>1198.270681006595</v>
+        <v>1379.870371525204</v>
       </c>
       <c r="X7" t="n">
-        <v>955.7067844524004</v>
+        <v>1137.306474971009</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.7067844524004</v>
+        <v>910.9637066607511</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.671441545175</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.811115598879</v>
+        <v>511.1098178163286</v>
       </c>
       <c r="D8" t="n">
-        <v>771.5184947838793</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>749.5819589721409</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>728.4981812019452</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
-        <v>324.1591187913938</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4813,13 +4813,13 @@
         <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
         <v>1651.269438076291</v>
@@ -4834,22 +4834,22 @@
         <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.98568150701</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1646.496266633259</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W8" t="n">
-        <v>1646.496266633259</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X8" t="n">
-        <v>1638.81667184141</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y8" t="n">
-        <v>1233.479401796301</v>
+        <v>792.0096593076759</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>51.94486801115937</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>602.6104029955975</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1153.275937980036</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1703.941472964474</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>737.4839554633641</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>565.51139234228</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>402.1946194690507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>402.1946194690507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>230.3328452436112</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>230.3328452436112</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>86.53657675176555</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -5004,10 +5004,10 @@
         <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>927.6499241754298</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>927.6499241754298</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
         <v>1264.531207409474</v>
@@ -5032,7 +5032,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,7 +5041,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K11" t="n">
         <v>1180.414480198223</v>
@@ -5050,43 +5050,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3833.214576747414</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O11" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P11" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L12" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M12" t="n">
-        <v>964.4851292537592</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N12" t="n">
-        <v>1910.990343986338</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>326.3817789554925</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="C13" t="n">
-        <v>326.3817789554925</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="D13" t="n">
-        <v>163.0650060822632</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E13" t="n">
-        <v>102.3027134058285</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F13" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G13" t="n">
         <v>102.3027134058285</v>
@@ -5199,10 +5199,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2155.623995541889</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1912.284647767789</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1632.100199268093</v>
       </c>
       <c r="V13" t="n">
-        <v>1260.306816359498</v>
+        <v>1350.388731876122</v>
       </c>
       <c r="W13" t="n">
-        <v>985.454412532011</v>
+        <v>1075.536328048635</v>
       </c>
       <c r="X13" t="n">
-        <v>742.8905159778161</v>
+        <v>832.9724314944403</v>
       </c>
       <c r="Y13" t="n">
-        <v>516.5477476675582</v>
+        <v>606.6296631841824</v>
       </c>
     </row>
     <row r="14">
@@ -5278,31 +5278,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
         <v>5010.768376164567</v>
@@ -5360,25 +5360,25 @@
         <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>381.4468456473314</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.761792120201</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1470.761792120201</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1041.68756743822</v>
+        <v>440.5322462326803</v>
       </c>
       <c r="C16" t="n">
-        <v>869.7150043171358</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D16" t="n">
-        <v>706.3982314439065</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E16" t="n">
-        <v>540.1900255967601</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S16" t="n">
-        <v>2235.677127506133</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T16" t="n">
-        <v>2235.677127506133</v>
+        <v>1936.353199528353</v>
       </c>
       <c r="U16" t="n">
-        <v>2235.677127506133</v>
+        <v>1656.168751028657</v>
       </c>
       <c r="V16" t="n">
-        <v>1975.612604842225</v>
+        <v>1374.457283636686</v>
       </c>
       <c r="W16" t="n">
-        <v>1700.760201014738</v>
+        <v>1099.604879809199</v>
       </c>
       <c r="X16" t="n">
-        <v>1458.196304460543</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y16" t="n">
-        <v>1231.853536150285</v>
+        <v>630.698214944746</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690841</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109899</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.0699265966</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747412</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.49385590534</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>4531.487895805612</v>
+        <v>4531.487895805611</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.99848093186</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232207</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399954</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354845</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>155.6788066435189</v>
       </c>
       <c r="H18" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>109.7493563677404</v>
+        <v>109.7493563677403</v>
       </c>
       <c r="J18" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>390.8583291475138</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>812.2850232837875</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>640.3124601627035</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>640.3124601627035</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>474.104254315557</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>302.2424800901174</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>135.9855103843495</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1228.793760306111</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1002.450991995853</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5752,31 +5752,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>786.1869982294937</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2720.098147267829</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
         <v>5010.768376164567</v>
@@ -5794,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>557.3635891120873</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N21" t="n">
-        <v>557.3635891120873</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
         <v>1910.990343986338</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>747.6452875977553</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>575.6727244766713</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>412.355951603442</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2206.621140167832</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1963.281792393732</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1963.281792393732</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1681.570325001761</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1406.717921174274</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1164.154024620079</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>937.8112563098209</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5998,16 +5998,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6068,16 +6068,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.8257932127802</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>697.8532300916962</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>534.5364572184669</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>368.3282513713204</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1785.357631525569</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1510.505227698082</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1267.941331143888</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>1059.991761924846</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>533.9931985757493</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,25 +6302,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3774.338928650966</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>3602.366365529882</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>3439.049592656653</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>3272.841386809506</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F28" t="n">
-        <v>3100.979612584067</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036462</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>4421.476826536767</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>4421.476826536767</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>4190.847665673289</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>4190.847665673289</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>3964.504897363031</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>188.235025135897</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>903.7433331113961</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1833.368380730673</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.654482149731</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>3813.905540636432</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4659.050190787244</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3854.586992529306</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D31" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>4945.000622810562</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>4788.512029933312</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>4788.512029933312</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>4513.659626105825</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>4271.09572955163</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>4044.752961241372</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4935.721337874071</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
         <v>5115.135670291427</v>
@@ -6779,16 +6779,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>853.0186603771511</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>681.0460972560671</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>853.0186603771511</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>853.0186603771511</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6943,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M35" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -6982,7 +6982,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.799010768326</v>
+        <v>308.8390190628106</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.799010768326</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
         <v>1828.971033901635</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5554397491844</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C37" t="n">
-        <v>543.5554397491844</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D37" t="n">
-        <v>380.2386668759551</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="E37" t="n">
-        <v>214.0304610288087</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>152.682489089834</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>2039.376393044857</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U37" t="n">
-        <v>1759.191944545161</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.48047715319</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.628073325703</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X37" t="n">
-        <v>960.064176771508</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.72140846125</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="38">
@@ -7180,22 +7180,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7204,19 +7204,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7265,16 +7265,16 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4017.903765402536</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C40" t="n">
-        <v>3845.931202281452</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D40" t="n">
-        <v>3682.614429408222</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E40" t="n">
-        <v>3516.406223561076</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F40" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5115.135670291427</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>5115.135670291427</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>5115.135670291427</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4951.828802806542</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>4676.976398979054</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X40" t="n">
-        <v>4434.41250242486</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y40" t="n">
-        <v>4208.069734114601</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D41" t="n">
         <v>1690.508147261616</v>
@@ -7399,10 +7399,10 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,25 +7411,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K41" t="n">
-        <v>1171.715112440169</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L41" t="n">
-        <v>2101.340160059446</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M41" t="n">
-        <v>3105.626261478504</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N41" t="n">
-        <v>3105.626261478504</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O41" t="n">
-        <v>3950.770911629316</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P41" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q41" t="n">
         <v>5115.135670291427</v>
@@ -7438,10 +7438,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
@@ -7487,28 +7487,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>102.3027134058285</v>
+        <v>730.647150085061</v>
       </c>
       <c r="L42" t="n">
-        <v>855.0038060102931</v>
+        <v>730.647150085061</v>
       </c>
       <c r="M42" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="N42" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="O42" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P42" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
         <v>102.3027134058285</v>
@@ -7596,25 +7596,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>2019.640305074347</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>2019.640305074347</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>456.2068044646703</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K44" t="n">
-        <v>1171.715112440169</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L44" t="n">
-        <v>2101.340160059446</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M44" t="n">
-        <v>3105.626261478504</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N44" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7690,7 +7690,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
         <v>2960.549862354846</v>
@@ -7724,25 +7724,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M45" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N45" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O45" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P45" t="n">
         <v>1446.844867123559</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1085.715267670341</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C46" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
         <v>102.3027134058285</v>
@@ -7806,10 +7806,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.972349746555</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1744.78790124686</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1744.78790124686</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W46" t="n">
-        <v>1744.78790124686</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X46" t="n">
-        <v>1502.224004692665</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.881236382407</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487773</v>
+        <v>156.8129265701837</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0887335865908</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>521.2079540533997</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>501.5097810124961</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>521.1676505099927</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641999</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8060,22 +8060,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873012</v>
+        <v>506.1759249873019</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>48.8552278928008</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>506.9485808761901</v>
+        <v>48.93033710269343</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587972</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8139,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>91.18620329819123</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>29.03818836740959</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8227,16 +8227,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.86874406016992</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>177.0689530252724</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8379,7 +8379,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>380.1908016072373</v>
+        <v>380.190801607238</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8388,7 +8388,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961657</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
         <v>315.9153581548562</v>
@@ -8461,16 +8461,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>181.8548408418185</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8531,28 +8531,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P9" t="n">
-        <v>89.67495492258647</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8698,13 +8698,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>763.430074865614</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>977.4089016807933</v>
+        <v>116.1889205166252</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>583.8722719747271</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9017,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>466.4461461201186</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747252</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,10 +9181,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9242,16 +9242,16 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>306.4635440675361</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>726.5568076874005</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,31 +9476,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>482.1725369225717</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,10 +9716,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>508.2614594140137</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,7 +9728,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9877,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>949.8342934347922</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.2202743644436</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10366,10 +10366,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
-        <v>217.3512730059682</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>35.03264989479647</v>
@@ -10427,10 +10427,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>508.2614594140137</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -10439,7 +10439,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10591,10 +10591,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,19 +10664,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>229.2336452999819</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>645.7592131966823</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>230.3933721714771</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>749.7130252568753</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11080,7 +11080,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>375.1268140734642</v>
       </c>
       <c r="L42" t="n">
-        <v>782.8192206581333</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11156,10 +11156,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>386.8988393430025</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.22025995478</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11320,7 +11320,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11393,7 +11393,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>534.642907502631</v>
+        <v>501.4810380814832</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.61286918175945</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>66.44073542471725</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>21.43047528078239</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23898,16 +23898,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>109.0123367981914</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24177,13 +24177,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>93.10004236144285</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.20926710030412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>43.78101053436947</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>122.4588970662212</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -25092,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>109.0268629553417</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>59.53268633643485</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>48.89490464996135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,19 +25836,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.93792262753476</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>200.7419213204365</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>534474.5246443473</v>
+        <v>534474.5246443474</v>
       </c>
     </row>
     <row r="3">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>524198.401210047</v>
+      </c>
+      <c r="C2" t="n">
         <v>524198.4012100471</v>
       </c>
-      <c r="C2" t="n">
-        <v>524198.4012100467</v>
-      </c>
       <c r="D2" t="n">
-        <v>524198.4012100467</v>
+        <v>524198.4012100471</v>
       </c>
       <c r="E2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="F2" t="n">
-        <v>505827.3628237026</v>
+        <v>505827.3628237028</v>
       </c>
       <c r="G2" t="n">
         <v>505827.3628237027</v>
       </c>
       <c r="H2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="I2" t="n">
-        <v>505827.3628237027</v>
+        <v>505827.3628237024</v>
       </c>
       <c r="J2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="K2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237026</v>
       </c>
       <c r="L2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="M2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="N2" t="n">
         <v>505827.3628237026</v>
       </c>
       <c r="O2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
       <c r="P2" t="n">
-        <v>505827.3628237025</v>
+        <v>505827.3628237027</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695912</v>
+        <v>162124.6960695914</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361226</v>
+        <v>23406.83367361204</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566406</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802888</v>
+        <v>126577.2685802889</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701983</v>
+        <v>18646.60035701965</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195487.3209125818</v>
+        <v>195487.3209125817</v>
       </c>
       <c r="C4" t="n">
         <v>182621.065515899</v>
@@ -26426,40 +26426,40 @@
         <v>182621.0655158991</v>
       </c>
       <c r="E4" t="n">
-        <v>72380.62724986373</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="F4" t="n">
         <v>72380.62724986371</v>
       </c>
       <c r="G4" t="n">
-        <v>72380.62724986368</v>
+        <v>72380.6272498637</v>
       </c>
       <c r="H4" t="n">
-        <v>72380.62724986367</v>
+        <v>72380.62724986371</v>
       </c>
       <c r="I4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="J4" t="n">
         <v>72380.62724986371</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>72380.62724986373</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>72380.62724986373</v>
+      </c>
+      <c r="M4" t="n">
         <v>72380.62724986371</v>
-      </c>
-      <c r="L4" t="n">
-        <v>72380.62724986371</v>
-      </c>
-      <c r="M4" t="n">
-        <v>72380.6272498637</v>
       </c>
       <c r="N4" t="n">
         <v>72380.62724986365</v>
       </c>
       <c r="O4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.62724986373</v>
       </c>
       <c r="P4" t="n">
-        <v>72380.62724986371</v>
+        <v>72380.6272498637</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216125</v>
+        <v>63041.22282216129</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,16 +26478,16 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842966</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26511,7 +26511,7 @@
         <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103545.1614057129</v>
+        <v>103545.1614057126</v>
       </c>
       <c r="C6" t="n">
-        <v>250724.2509831073</v>
+        <v>250724.2509831079</v>
       </c>
       <c r="D6" t="n">
-        <v>274131.0846567195</v>
+        <v>274131.0846567198</v>
       </c>
       <c r="E6" t="n">
-        <v>139957.3168287688</v>
+        <v>139906.2861665845</v>
       </c>
       <c r="F6" t="n">
-        <v>355696.6733854092</v>
+        <v>355645.6427232251</v>
       </c>
       <c r="G6" t="n">
-        <v>355696.6733854093</v>
+        <v>355645.6427232251</v>
       </c>
       <c r="H6" t="n">
-        <v>355696.6733854092</v>
+        <v>355645.642723225</v>
       </c>
       <c r="I6" t="n">
-        <v>355696.6733854093</v>
+        <v>355645.6427232247</v>
       </c>
       <c r="J6" t="n">
-        <v>229119.4048051204</v>
+        <v>229068.374142936</v>
       </c>
       <c r="K6" t="n">
-        <v>337050.0730283893</v>
+        <v>336999.0423662052</v>
       </c>
       <c r="L6" t="n">
-        <v>355696.6733854091</v>
+        <v>355645.6427232249</v>
       </c>
       <c r="M6" t="n">
-        <v>175632.8019302415</v>
+        <v>175581.7712680574</v>
       </c>
       <c r="N6" t="n">
-        <v>355696.6733854092</v>
+        <v>355645.642723225</v>
       </c>
       <c r="O6" t="n">
-        <v>355696.6733854091</v>
+        <v>355645.6427232249</v>
       </c>
       <c r="P6" t="n">
-        <v>355696.6733854091</v>
+        <v>355645.642723225</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -26804,7 +26804,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.783917572857</v>
+        <v>1278.783917572856</v>
       </c>
       <c r="H4" t="n">
         <v>1278.783917572857</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162626</v>
+        <v>72.45112196162557</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>179.2305980972451</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>75.90697691165661</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>165.4246365098703</v>
+        <v>233.7944680079798</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>290.4897201912249</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>377.1203914311237</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>38.35859157385995</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>267.9145492628528</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>160.1907602590139</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>52.57331247994426</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>57.15291439163395</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539679</v>
+        <v>121.0483257753743</v>
       </c>
       <c r="L2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>483.7766911539679</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>464.2301581780501</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539679</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.75844738047282</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539679</v>
+        <v>25.75844738047121</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539686</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34859,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>70.22154884547923</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>6.657387709423108</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.74406945557187</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>155.2981118204437</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35099,7 +35099,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115368</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35108,7 +35108,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977413</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
         <v>293.5345574968697</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>144.2794790315872</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>144.2794790315872</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35251,28 +35251,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P9" t="n">
-        <v>67.9041137177578</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35418,13 +35418,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>726.1504520311679</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>956.0658734672517</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>548.1076711799178</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>444.6753049152899</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366201</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799159</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,10 +35901,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35962,16 +35962,16 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>283.9484573533065</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>690.7922068925911</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>459.6574502083422</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>485.8622255806804</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>86.80031487885702</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37086,10 +37086,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
-        <v>181.2265984013702</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>485.8622255806804</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37311,10 +37311,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>208.6225309666486</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>624.4161849831406</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>82.84778796434657</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,19 +37633,19 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>713.948424462066</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37800,7 +37800,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>352.7275802401309</v>
       </c>
       <c r="L42" t="n">
-        <v>760.3041339439037</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>357.478879857416</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553483</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38040,7 +38040,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>512.8720662978023</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
